--- a/biology/Médecine/CyberSanté_Ontario/CyberSanté_Ontario.xlsx
+++ b/biology/Médecine/CyberSanté_Ontario/CyberSanté_Ontario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CyberSant%C3%A9_Ontario</t>
+          <t>CyberSanté_Ontario</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CyberSanté Ontario est un programme de l'Ontario destiné à informatiser les dossiers médicaux des patients ontariens. Fondé en septembre 2008, il disposait de 7 ans pour ce faire. Il a été frappé par un scandale financier en 2009, scandale qui a entraîné la démission de sa directrice, puis celle du ministre de la santé de l'Ontario, David Caplan (en). En 2019, CyberSanté Ontario a été absorbé par Ontario Santé (en)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CyberSanté Ontario est un programme de l'Ontario destiné à informatiser les dossiers médicaux des patients ontariens. Fondé en septembre 2008, il disposait de 7 ans pour ce faire. Il a été frappé par un scandale financier en 2009, scandale qui a entraîné la démission de sa directrice, puis celle du ministre de la santé de l'Ontario, David Caplan (en). En 2019, CyberSanté Ontario a été absorbé par Ontario Santé (en).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CyberSant%C3%A9_Ontario</t>
+          <t>CyberSanté_Ontario</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En lien avec ses activités, l'agence est au centre d'un scandale politico-financier mis en lumière en octobre 2009. Plusieurs centaines de millions de CAD auraient été dépensés « en vain »[2]. Des agences responsables du programme « ont attribué des contrats sans appel d'offres »[2]. En octobre 2009, ce scandale a coûté son poste au ministre de la santé de l'Ontario David Caplan (en)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En lien avec ses activités, l'agence est au centre d'un scandale politico-financier mis en lumière en octobre 2009. Plusieurs centaines de millions de CAD auraient été dépensés « en vain ». Des agences responsables du programme « ont attribué des contrats sans appel d'offres ». En octobre 2009, ce scandale a coûté son poste au ministre de la santé de l'Ontario David Caplan (en).
 </t>
         </is>
       </c>
